--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\VPS\Test Case\PS\3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\VPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663C71E-24AE-434E-ADA2-F8951AB1B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61634E9B-0A4D-4A3E-A3E1-D92E1F2B6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="375">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1912,12 +1912,6 @@
     <t>Viene mostrato all'operatore l'errore 'Controllare la configurazione dell'applicativo,  sezione FsE' e viene chiesto di correggerla e riprovare. L'operatore non è autonomo.</t>
   </si>
   <si>
-    <t>In fase di configurazione abbiamo impostato a stringa vuota il claim "iss".</t>
-  </si>
-  <si>
-    <t>In fase di configurazione abbiamo leggermente alterato il valore del claim "iss".</t>
-  </si>
-  <si>
     <t>2023-02-13T11:43:04Z</t>
   </si>
   <si>
@@ -1979,6 +1973,27 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7a5da34fcf4d125ce739ef46d49bdaece3f93efcaf130d93f3d6c39d38eafb2e.7d3aabcf0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>In fase di configurazione abbiamo impostato a stringa vuota il claim "purpose_of_use".</t>
+  </si>
+  <si>
+    <t>179d21f18b2282ed</t>
+  </si>
+  <si>
+    <t>2023-02-21T13:22:29Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>557d9706668937fc</t>
+  </si>
+  <si>
+    <t>2023-02-21T13:27:55Z</t>
+  </si>
+  <si>
+    <t>In fase di configurazione abbiamo leggermente alterato il valore del claim "action_id".</t>
   </si>
 </sst>
 </file>
@@ -3898,10 +3913,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J158" sqref="J158"/>
+      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4682,13 +4697,13 @@
         <v>44970</v>
       </c>
       <c r="G31" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19" t="s">
@@ -4719,13 +4734,13 @@
         <v>44970</v>
       </c>
       <c r="G32" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>352</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
@@ -4756,13 +4771,13 @@
         <v>44970</v>
       </c>
       <c r="G33" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>355</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>357</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19" t="s">
@@ -4793,13 +4808,13 @@
         <v>44970</v>
       </c>
       <c r="G34" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>358</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>360</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19" t="s">
@@ -4972,11 +4987,17 @@
         <v>97</v>
       </c>
       <c r="F40" s="17">
-        <v>44970</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+        <v>44978</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="J40" s="19" t="s">
         <v>346</v>
       </c>
@@ -4989,7 +5010,7 @@
         <v>87</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5154,11 +5175,17 @@
         <v>109</v>
       </c>
       <c r="F46" s="17">
-        <v>44970</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+        <v>44978</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="J46" s="19" t="s">
         <v>346</v>
       </c>
@@ -5171,7 +5198,7 @@
         <v>87</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7503,13 +7530,13 @@
         <v>44970</v>
       </c>
       <c r="G126" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="I126" s="18" t="s">
         <v>361</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="I126" s="18" t="s">
-        <v>363</v>
       </c>
       <c r="J126" s="19" t="s">
         <v>329</v>
@@ -7544,13 +7571,13 @@
         <v>44970</v>
       </c>
       <c r="G127" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="I127" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="H127" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="J127" s="19" t="s">
         <v>329</v>
@@ -8148,13 +8175,13 @@
         <v>44970</v>
       </c>
       <c r="G145" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="I145" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="I145" s="18" t="s">
-        <v>369</v>
       </c>
       <c r="J145" s="19" t="s">
         <v>342</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\VPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Da Accreditare vps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61634E9B-0A4D-4A3E-A3E1-D92E1F2B6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FC675-87C6-400C-A049-084143E427B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="376">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1912,42 +1912,6 @@
     <t>Viene mostrato all'operatore l'errore 'Controllare la configurazione dell'applicativo,  sezione FsE' e viene chiesto di correggerla e riprovare. L'operatore non è autonomo.</t>
   </si>
   <si>
-    <t>2023-02-13T11:43:04Z</t>
-  </si>
-  <si>
-    <t>a68c6ae9210a47c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7a5da34fcf4d125ce739ef46d49bdaece3f93efcaf130d93f3d6c39d38eafb2e.119c42d18d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-13T11:43:06Z</t>
-  </si>
-  <si>
-    <t>b8d4be69675d11fd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a834b293f27ec3cd576f199962a469e0ec0078d9e5bd5c55a4ebba6119c44785.96daa9168f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-13T11:43:09Z</t>
-  </si>
-  <si>
-    <t>b8121ec75f488b62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.847e6c9f96dc11811fd96e20ad49a652b6eb9b341d7214fe6a0b9e0c46b70196.c7bfa17d32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-13T11:43:14Z</t>
-  </si>
-  <si>
-    <t>11e254f40adc9e2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a834b293f27ec3cd576f199962a469e0ec0078d9e5bd5c55a4ebba6119c44785.30b16cfd18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-13T11:43:15Z</t>
   </si>
   <si>
@@ -1994,6 +1958,45 @@
   </si>
   <si>
     <t>In fase di configurazione abbiamo leggermente alterato il valore del claim "action_id".</t>
+  </si>
+  <si>
+    <t>2023-03-22T16:01:38Z</t>
+  </si>
+  <si>
+    <t>0a932702ef69ed37</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.ffac17b308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-22T16:01:40Z</t>
+  </si>
+  <si>
+    <t>e2a3409da78836c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.afd85da314^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-22T16:01:42Z</t>
+  </si>
+  <si>
+    <t>f60817c5f188f91e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.a16f14401d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-22T16:01:44Z</t>
+  </si>
+  <si>
+    <t>8b309cb59fae83bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.d2aa685a09^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Abbiamo commentato nel cda l sezioni con codice 11450-4 (PROBLEMI_APERTI) e 42346-7 (TERAPIA_FARMACOLOGICA_INGRESSO) in quanto il VOSTRO validatore di test ci segnala che non sono valori accettati nonostante siano presenti nelle specifiche HL7italia.</t>
   </si>
 </sst>
 </file>
@@ -3913,10 +3916,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4694,16 +4697,16 @@
         <v>78</v>
       </c>
       <c r="F31" s="17">
-        <v>44970</v>
+        <v>45007</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19" t="s">
@@ -4731,16 +4734,16 @@
         <v>80</v>
       </c>
       <c r="F32" s="17">
-        <v>44970</v>
+        <v>45007</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
@@ -4768,16 +4771,16 @@
         <v>82</v>
       </c>
       <c r="F33" s="17">
-        <v>44970</v>
+        <v>45007</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19" t="s">
@@ -4805,16 +4808,16 @@
         <v>84</v>
       </c>
       <c r="F34" s="17">
-        <v>44970</v>
+        <v>45007</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19" t="s">
@@ -4823,7 +4826,9 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
+      <c r="O34" s="21" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
@@ -4990,13 +4995,13 @@
         <v>44978</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>346</v>
@@ -5010,7 +5015,7 @@
         <v>87</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5178,13 +5183,13 @@
         <v>44978</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>346</v>
@@ -5198,7 +5203,7 @@
         <v>87</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7530,13 +7535,13 @@
         <v>44970</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J126" s="19" t="s">
         <v>329</v>
@@ -7571,13 +7576,13 @@
         <v>44970</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J127" s="19" t="s">
         <v>329</v>
@@ -8175,13 +8180,13 @@
         <v>44970</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J145" s="19" t="s">
         <v>342</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Da Accreditare vps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Ps Da Accreditare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FC675-87C6-400C-A049-084143E427B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD4F96-BDCA-4622-A8B3-16A37D6379DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1960,43 +1960,43 @@
     <t>In fase di configurazione abbiamo leggermente alterato il valore del claim "action_id".</t>
   </si>
   <si>
-    <t>2023-03-22T16:01:38Z</t>
-  </si>
-  <si>
-    <t>0a932702ef69ed37</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.ffac17b308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-22T16:01:40Z</t>
-  </si>
-  <si>
-    <t>e2a3409da78836c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.afd85da314^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-22T16:01:42Z</t>
-  </si>
-  <si>
-    <t>f60817c5f188f91e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.a16f14401d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-22T16:01:44Z</t>
-  </si>
-  <si>
-    <t>8b309cb59fae83bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.d2aa685a09^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Abbiamo commentato nel cda l sezioni con codice 11450-4 (PROBLEMI_APERTI) e 42346-7 (TERAPIA_FARMACOLOGICA_INGRESSO) in quanto il VOSTRO validatore di test ci segnala che non sono valori accettati nonostante siano presenti nelle specifiche HL7italia.</t>
+  </si>
+  <si>
+    <t>e93668c4768ef75c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.c3f9fd40f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f921b393c463982c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.de7e8f48ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bc39ae9fec284611</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.36b7e4bd51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>da39d72fe4ac36ee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.596bd4a2e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-28T16:48:19Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T16:48:21Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T16:48:24Z</t>
+  </si>
+  <si>
+    <t>2023-03-28T16:48:27Z</t>
   </si>
 </sst>
 </file>
@@ -3915,11 +3915,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4697,10 +4697,10 @@
         <v>78</v>
       </c>
       <c r="F31" s="17">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>364</v>
@@ -4734,16 +4734,16 @@
         <v>80</v>
       </c>
       <c r="F32" s="17">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="G32" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="I32" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
@@ -4771,16 +4771,16 @@
         <v>82</v>
       </c>
       <c r="F33" s="17">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="G33" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>369</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19" t="s">
@@ -4808,16 +4808,16 @@
         <v>84</v>
       </c>
       <c r="F34" s="17">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19" t="s">
@@ -4827,7 +4827,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
       <c r="O34" s="21" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Ps Da Accreditare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD4F96-BDCA-4622-A8B3-16A37D6379DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159DF317-BBB1-4298-9ACD-325897A0A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="375">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1963,40 +1963,37 @@
     <t>Abbiamo commentato nel cda l sezioni con codice 11450-4 (PROBLEMI_APERTI) e 42346-7 (TERAPIA_FARMACOLOGICA_INGRESSO) in quanto il VOSTRO validatore di test ci segnala che non sono valori accettati nonostante siano presenti nelle specifiche HL7italia.</t>
   </si>
   <si>
-    <t>e93668c4768ef75c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.c3f9fd40f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f921b393c463982c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.de7e8f48ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bc39ae9fec284611</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.36b7e4bd51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>da39d72fe4ac36ee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.596bd4a2e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-28T16:48:19Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T16:48:21Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T16:48:24Z</t>
-  </si>
-  <si>
-    <t>2023-03-28T16:48:27Z</t>
+    <t>2023-04-11T07:38:01Z</t>
+  </si>
+  <si>
+    <t>1ea04633a7824f1e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.5578f7be97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:38:02Z</t>
+  </si>
+  <si>
+    <t>dbe1ee0720a093a4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.7c054c9025^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>67081f4e988c5d2b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.99311ddb2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:38:03Z</t>
+  </si>
+  <si>
+    <t>f9897f03fa53b0c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.5e348f8882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4697,16 +4694,16 @@
         <v>78</v>
       </c>
       <c r="F31" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19" t="s">
@@ -4734,16 +4731,16 @@
         <v>80</v>
       </c>
       <c r="F32" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
@@ -4771,16 +4768,16 @@
         <v>82</v>
       </c>
       <c r="F33" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19" t="s">
@@ -4808,16 +4805,16 @@
         <v>84</v>
       </c>
       <c r="F34" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19" t="s">

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\Nuovi Ps Da Accreditare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\ACCREDITAMENTO VPS 18.04.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159DF317-BBB1-4298-9ACD-325897A0A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B877BB1-0F12-444B-B026-8411BE4DD19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,37 +1963,37 @@
     <t>Abbiamo commentato nel cda l sezioni con codice 11450-4 (PROBLEMI_APERTI) e 42346-7 (TERAPIA_FARMACOLOGICA_INGRESSO) in quanto il VOSTRO validatore di test ci segnala che non sono valori accettati nonostante siano presenti nelle specifiche HL7italia.</t>
   </si>
   <si>
-    <t>2023-04-11T07:38:01Z</t>
-  </si>
-  <si>
-    <t>1ea04633a7824f1e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.5578f7be97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:38:02Z</t>
-  </si>
-  <si>
-    <t>dbe1ee0720a093a4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.7c054c9025^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>67081f4e988c5d2b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.99311ddb2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:38:03Z</t>
-  </si>
-  <si>
-    <t>f9897f03fa53b0c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.5e348f8882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-18T14:06:21Z</t>
+  </si>
+  <si>
+    <t>a7027cac1a5f697f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.6d93ea6438^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-18T14:06:22Z</t>
+  </si>
+  <si>
+    <t>50d7038ca46db614</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.846e196e88a28cbeccb91672e9a9c29f5c4a5cc8903ec1574de73d8417234c6c.16244b5a86^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>da681da75c15fffb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.aea30ff84f10dd4467deda258026c7a0842c82cc0cd1033db60267cb017567f1.b5d439bc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-18T14:06:23Z</t>
+  </si>
+  <si>
+    <t>52c15f3c445ef97c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.680fb7c5b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4694,7 +4694,7 @@
         <v>78</v>
       </c>
       <c r="F31" s="17">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>364</v>
@@ -4731,7 +4731,7 @@
         <v>80</v>
       </c>
       <c r="F32" s="17">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>367</v>
@@ -4768,7 +4768,7 @@
         <v>82</v>
       </c>
       <c r="F33" s="17">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>367</v>
@@ -4805,7 +4805,7 @@
         <v>84</v>
       </c>
       <c r="F34" s="17">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>372</v>

--- a/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111CIDSOFTWARE/CiD_Software_SpA/PS/3.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\ACCREDITAMENTO VPS 18.04.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CiD\SIO\CidCda2Generator\doc\VPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B877BB1-0F12-444B-B026-8411BE4DD19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09291255-722E-40F4-A6C2-5911BA9F56F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,9 +1846,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare.</t>
-  </si>
-  <si>
     <t>Il software non consente di portare in dimissione un paziente senza CF</t>
   </si>
   <si>
@@ -1858,9 +1855,6 @@
     <t>Al campo non è possibile assegnare un valore differente da quelli previsti</t>
   </si>
   <si>
-    <t>Viene richiesto all'operatore di compilare i dati richiesti per l'anagrafica dell'assitito</t>
-  </si>
-  <si>
     <t>E' un campo obbligatorio in fase di accettazione</t>
   </si>
   <si>
@@ -1994,6 +1988,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.a2f3682ea44fcddacd4bfaf772051fdb98904335bf490a417604a73c2366f1b8.680fb7c5b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene mostrato all'operatore un errore di timeout e viene chiesto di riprovare: l'operazione di retry viene eseguita manualmente dall’operatore in back office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiesto all'operatore di compilare i dati richiesti per l'anagrafica dell'assitito: le operazioni di correzione anagrafica e reinvio ad fse  sono eseguite dall'operatore (Medico) </t>
   </si>
 </sst>
 </file>
@@ -3916,7 +3916,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4697,13 +4697,13 @@
         <v>45034</v>
       </c>
       <c r="G31" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19" t="s">
@@ -4734,13 +4734,13 @@
         <v>45034</v>
       </c>
       <c r="G32" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>369</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="s">
@@ -4771,13 +4771,13 @@
         <v>45034</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19" t="s">
@@ -4808,13 +4808,13 @@
         <v>45034</v>
       </c>
       <c r="G34" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>374</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19" t="s">
@@ -4824,7 +4824,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
       <c r="O34" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,16 +4992,16 @@
         <v>44978</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H40" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="J40" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>87</v>
@@ -5012,7 +5012,7 @@
         <v>87</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,16 +5180,16 @@
         <v>44978</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>87</v>
@@ -5200,7 +5200,7 @@
         <v>87</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5371,7 +5371,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>87</v>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="L123" s="19"/>
       <c r="M123" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N123" s="20" t="s">
         <v>87</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="L124" s="19"/>
       <c r="M124" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N124" s="20" t="s">
         <v>87</v>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="L125" s="19"/>
       <c r="M125" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N125" s="20" t="s">
         <v>87</v>
@@ -7532,16 +7532,16 @@
         <v>44970</v>
       </c>
       <c r="G126" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="I126" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="H126" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="I126" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="J126" s="19" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>87</v>
@@ -7573,16 +7573,16 @@
         <v>44970</v>
       </c>
       <c r="G127" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I127" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="H127" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>352</v>
-      </c>
       <c r="J127" s="19" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>87</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="L128" s="19"/>
       <c r="M128" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N128" s="20" t="s">
         <v>87</v>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="L129" s="19"/>
       <c r="M129" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N129" s="20" t="s">
         <v>87</v>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="L130" s="19"/>
       <c r="M130" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N130" s="20" t="s">
         <v>87</v>
@@ -7719,13 +7719,13 @@
       </c>
       <c r="L131" s="19"/>
       <c r="M131" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N131" s="20" t="s">
         <v>87</v>
       </c>
       <c r="O131" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="L132" s="19"/>
       <c r="M132" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N132" s="20" t="s">
         <v>87</v>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="L133" s="19"/>
       <c r="M133" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N133" s="20" t="s">
         <v>87</v>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="L134" s="19"/>
       <c r="M134" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N134" s="20" t="s">
         <v>87</v>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="L135" s="19"/>
       <c r="M135" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N135" s="20" t="s">
         <v>87</v>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="L136" s="19"/>
       <c r="M136" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N136" s="20" t="s">
         <v>87</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="L137" s="19"/>
       <c r="M137" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N137" s="20" t="s">
         <v>87</v>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="L138" s="19"/>
       <c r="M138" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N138" s="20" t="s">
         <v>87</v>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L139" s="19"/>
       <c r="M139" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N139" s="20" t="s">
         <v>87</v>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="L140" s="19"/>
       <c r="M140" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N140" s="20" t="s">
         <v>87</v>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="L141" s="19"/>
       <c r="M141" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N141" s="20" t="s">
         <v>87</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="L142" s="19"/>
       <c r="M142" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N142" s="20" t="s">
         <v>87</v>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="L143" s="19"/>
       <c r="M143" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N143" s="20" t="s">
         <v>87</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="L144" s="19"/>
       <c r="M144" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N144" s="20" t="s">
         <v>87</v>
@@ -8177,16 +8177,16 @@
         <v>44970</v>
       </c>
       <c r="G145" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="I145" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="H145" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="I145" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="J145" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>87</v>
@@ -8224,13 +8224,13 @@
       </c>
       <c r="L146" s="19"/>
       <c r="M146" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N146" s="20" t="s">
         <v>87</v>
       </c>
       <c r="O146" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="L147" s="19"/>
       <c r="M147" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N147" s="20" t="s">
         <v>87</v>
